--- a/Data/EC/NIT-9011566348.xlsx
+++ b/Data/EC/NIT-9011566348.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE870CC0-0C53-4A6B-B766-16179093914C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A2015E8-660B-442C-B132-3C45CDDE0498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{54AB26E5-17B6-410C-8052-8E9FC0C3A556}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CFF9A87D-3FB2-4B02-B3A9-7074BAF1948E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,154 +65,154 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047501402</t>
+  </si>
+  <si>
+    <t>YULISSA FERNANDA BLANQUICETT SOLANO</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
     <t>1010003262</t>
   </si>
   <si>
     <t>KAREN ELVIRA CHACON ESCORCIA</t>
   </si>
   <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
     <t>1809</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1047501402</t>
-  </si>
-  <si>
-    <t>YULISSA FERNANDA BLANQUICETT SOLANO</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -256,7 +256,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,7 +626,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA6CA6E-378E-C9D7-89ED-B0094062302A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7833A4-97F0-ADED-5515-94F4657D2161}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -977,28 +977,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AD3B7A-F27E-4817-8D9A-CFCF878AF61C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7641FE7A-90D4-411A-BAB0-C7122D1DA6D3}">
   <dimension ref="B2:J68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -1011,7 +1011,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1022,7 +1022,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1033,7 +1033,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1044,8 +1044,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>60</v>
       </c>
@@ -1060,8 +1060,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1076,8 +1076,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>61</v>
       </c>
@@ -1092,8 +1092,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>62</v>
       </c>
@@ -1112,7 +1112,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1155,53 +1155,53 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>10416</v>
+        <v>13333</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>13333</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
         <v>1000000</v>
@@ -1210,1019 +1210,1019 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>40000</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
       </c>
       <c r="G28" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>40000</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
       </c>
       <c r="G32" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
       </c>
       <c r="G34" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
       </c>
       <c r="G36" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
       </c>
       <c r="G37" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
         <v>40000</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
       </c>
       <c r="G40" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>40000</v>
       </c>
       <c r="G41" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
         <v>40000</v>
       </c>
       <c r="G42" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
         <v>40000</v>
       </c>
       <c r="G43" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F44" s="18">
         <v>40000</v>
       </c>
       <c r="G44" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F45" s="18">
         <v>40000</v>
       </c>
       <c r="G45" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
         <v>40000</v>
       </c>
       <c r="G46" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" s="18">
         <v>40000</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" s="18">
         <v>40000</v>
       </c>
       <c r="G48" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F49" s="18">
         <v>40000</v>
       </c>
       <c r="G49" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F50" s="18">
         <v>40000</v>
       </c>
       <c r="G50" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F51" s="18">
         <v>40000</v>
       </c>
       <c r="G51" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F52" s="18">
         <v>40000</v>
       </c>
       <c r="G52" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F53" s="18">
         <v>40000</v>
       </c>
       <c r="G53" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F54" s="18">
         <v>40000</v>
       </c>
       <c r="G54" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F55" s="18">
         <v>40000</v>
       </c>
       <c r="G55" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F56" s="18">
         <v>40000</v>
       </c>
       <c r="G56" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F57" s="18">
         <v>40000</v>
       </c>
       <c r="G57" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F58" s="18">
         <v>40000</v>
       </c>
       <c r="G58" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F59" s="18">
         <v>40000</v>
       </c>
       <c r="G59" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F60" s="18">
         <v>40000</v>
       </c>
       <c r="G60" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F61" s="18">
         <v>40000</v>
       </c>
       <c r="G61" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E62" s="22" t="s">
         <v>58</v>
       </c>
       <c r="F62" s="24">
-        <v>33333</v>
+        <v>10416</v>
       </c>
       <c r="G62" s="24">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
       <c r="J62" s="26"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="32" t="s">
         <v>68</v>
       </c>
@@ -2233,7 +2233,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="32" t="s">
         <v>67</v>
       </c>

--- a/Data/EC/NIT-9011566348.xlsx
+++ b/Data/EC/NIT-9011566348.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A2015E8-660B-442C-B132-3C45CDDE0498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A002FFAD-ADEC-4D41-A4C8-1DEEF7C822A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CFF9A87D-3FB2-4B02-B3A9-7074BAF1948E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D75CB159-435B-40C8-95ED-49C98F2393C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,15 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1010003262</t>
+  </si>
+  <si>
+    <t>KAREN ELVIRA CHACON ESCORCIA</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
     <t>1047501402</t>
   </si>
   <si>
@@ -74,145 +83,136 @@
     <t>1905</t>
   </si>
   <si>
-    <t>1010003262</t>
-  </si>
-  <si>
-    <t>KAREN ELVIRA CHACON ESCORCIA</t>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
   </si>
   <si>
     <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1809</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -256,7 +256,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,7 +311,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -324,9 +326,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -526,23 +526,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -570,10 +570,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -626,7 +626,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7833A4-97F0-ADED-5515-94F4657D2161}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFAAB7B-8469-6A21-DEDD-1E29D3BB5906}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -977,28 +977,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7641FE7A-90D4-411A-BAB0-C7122D1DA6D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725CA2AF-45F9-42BE-BB41-95E8691B5A51}">
   <dimension ref="B2:J68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -1011,7 +1011,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1022,7 +1022,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1033,7 +1033,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1044,8 +1044,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>60</v>
       </c>
@@ -1060,8 +1060,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1076,8 +1076,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>61</v>
       </c>
@@ -1092,8 +1092,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>62</v>
       </c>
@@ -1112,7 +1112,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>13333</v>
+        <v>10416</v>
       </c>
       <c r="G16" s="18">
         <v>1000000</v>
@@ -1164,7 +1164,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>33333</v>
+        <v>13333</v>
       </c>
       <c r="G17" s="18">
         <v>1000000</v>
@@ -1187,18 +1187,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>40000</v>
@@ -1210,18 +1210,18 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>40000</v>
@@ -1233,18 +1233,18 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>40000</v>
@@ -1256,18 +1256,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
@@ -1279,18 +1279,18 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>40000</v>
@@ -1302,18 +1302,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>40000</v>
@@ -1325,18 +1325,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
@@ -1348,18 +1348,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1371,18 +1371,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1394,18 +1394,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1417,18 +1417,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
@@ -1440,18 +1440,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
@@ -1463,18 +1463,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
         <v>40000</v>
@@ -1486,18 +1486,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1509,18 +1509,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
@@ -1532,18 +1532,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
@@ -1555,18 +1555,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
@@ -1578,18 +1578,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
@@ -1601,18 +1601,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
@@ -1624,18 +1624,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
@@ -1647,18 +1647,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
@@ -1670,18 +1670,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F39" s="18">
         <v>40000</v>
@@ -1693,18 +1693,18 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
@@ -1716,18 +1716,18 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F41" s="18">
         <v>40000</v>
@@ -1739,18 +1739,18 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
         <v>40000</v>
@@ -1762,18 +1762,18 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F43" s="18">
         <v>40000</v>
@@ -1785,18 +1785,18 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F44" s="18">
         <v>40000</v>
@@ -1808,18 +1808,18 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F45" s="18">
         <v>40000</v>
@@ -1831,18 +1831,18 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F46" s="18">
         <v>40000</v>
@@ -1854,18 +1854,18 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" s="18">
         <v>40000</v>
@@ -1877,18 +1877,18 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" s="18">
         <v>40000</v>
@@ -1900,18 +1900,18 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F49" s="18">
         <v>40000</v>
@@ -1923,18 +1923,18 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F50" s="18">
         <v>40000</v>
@@ -1946,18 +1946,18 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F51" s="18">
         <v>40000</v>
@@ -1969,18 +1969,18 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F52" s="18">
         <v>40000</v>
@@ -1992,18 +1992,18 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F53" s="18">
         <v>40000</v>
@@ -2015,18 +2015,18 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F54" s="18">
         <v>40000</v>
@@ -2038,18 +2038,18 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F55" s="18">
         <v>40000</v>
@@ -2061,18 +2061,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F56" s="18">
         <v>40000</v>
@@ -2084,18 +2084,18 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F57" s="18">
         <v>40000</v>
@@ -2107,18 +2107,18 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F58" s="18">
         <v>40000</v>
@@ -2130,18 +2130,18 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F59" s="18">
         <v>40000</v>
@@ -2153,18 +2153,18 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F60" s="18">
         <v>40000</v>
@@ -2176,18 +2176,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F61" s="18">
         <v>40000</v>
@@ -2199,21 +2199,21 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E62" s="22" t="s">
         <v>58</v>
       </c>
       <c r="F62" s="24">
-        <v>10416</v>
+        <v>33333</v>
       </c>
       <c r="G62" s="24">
         <v>1000000</v>
@@ -2222,7 +2222,7 @@
       <c r="I62" s="25"/>
       <c r="J62" s="26"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="32" t="s">
         <v>68</v>
       </c>
@@ -2233,7 +2233,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="32" t="s">
         <v>67</v>
       </c>

--- a/Data/EC/NIT-9011566348.xlsx
+++ b/Data/EC/NIT-9011566348.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A002FFAD-ADEC-4D41-A4C8-1DEEF7C822A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5B86DCB-A4D1-42D8-B878-701826749BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D75CB159-435B-40C8-95ED-49C98F2393C0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0392A51A-3040-4C4C-8D17-9D9AC9EBE4B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,9 +311,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -326,7 +324,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -520,29 +520,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -561,19 +561,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -626,7 +632,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFAAB7B-8469-6A21-DEDD-1E29D3BB5906}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF91AC66-D2BA-B814-23C6-3839C8AACDB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -977,80 +983,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725CA2AF-45F9-42BE-BB41-95E8691B5A51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385D19A5-3964-4B1B-9414-64FA3A9319B9}">
   <dimension ref="B2:J68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1060,13 +1066,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9011566348</v>
       </c>
@@ -1076,13 +1082,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>1817082</v>
       </c>
@@ -1092,8 +1098,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>62</v>
       </c>
@@ -1112,7 +1118,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1147,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1151,20 +1157,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>10416</v>
       </c>
-      <c r="G16" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="G16" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1174,20 +1180,20 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>13333</v>
       </c>
-      <c r="G17" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="G17" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1197,20 +1203,20 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="F18" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1220,20 +1226,20 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="F19" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1243,20 +1249,20 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G20" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="F20" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1266,20 +1272,20 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="F21" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1289,20 +1295,20 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="F22" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1312,20 +1318,20 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="F23" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1335,20 +1341,20 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="F24" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1358,20 +1364,20 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="F25" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1381,20 +1387,20 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="F26" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1404,20 +1410,20 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="F27" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1427,20 +1433,20 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="F28" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1450,20 +1456,20 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="F29" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1473,20 +1479,20 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="F30" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1496,20 +1502,20 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="F31" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1519,20 +1525,20 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="F32" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1542,20 +1548,20 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="F33" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1565,20 +1571,20 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="F34" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G34" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1588,20 +1594,20 @@
       <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="F35" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1611,20 +1617,20 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="F36" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1634,20 +1640,20 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="F37" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G37" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1657,20 +1663,20 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="F38" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1680,20 +1686,20 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="F39" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1703,20 +1709,20 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F40" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="F40" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1726,20 +1732,20 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="F41" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G41" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1749,20 +1755,20 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="F42" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G42" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1772,20 +1778,20 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F43" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="F43" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1795,20 +1801,20 @@
       <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="F44" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G44" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1818,20 +1824,20 @@
       <c r="D45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="F45" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G45" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1841,20 +1847,20 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="F46" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G46" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1864,20 +1870,20 @@
       <c r="D47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="F47" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1887,20 +1893,20 @@
       <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F48" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="F48" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G48" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1910,20 +1916,20 @@
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F49" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10">
+      <c r="F49" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G49" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -1933,20 +1939,20 @@
       <c r="D50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F50" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10">
+      <c r="F50" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G50" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -1956,20 +1962,20 @@
       <c r="D51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F51" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="F51" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G51" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -1979,20 +1985,20 @@
       <c r="D52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10">
+      <c r="F52" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G52" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2002,20 +2008,20 @@
       <c r="D53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="F53" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G53" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2025,20 +2031,20 @@
       <c r="D54" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F54" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10">
+      <c r="F54" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G54" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2048,20 +2054,20 @@
       <c r="D55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F55" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G55" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="F55" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G55" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2071,20 +2077,20 @@
       <c r="D56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F56" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G56" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10">
+      <c r="F56" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G56" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2094,20 +2100,20 @@
       <c r="D57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F57" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G57" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10">
+      <c r="F57" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G57" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2117,20 +2123,20 @@
       <c r="D58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F58" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G58" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10">
+      <c r="F58" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G58" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2140,20 +2146,20 @@
       <c r="D59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G59" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10">
+      <c r="F59" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G59" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2163,20 +2169,20 @@
       <c r="D60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F60" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G60" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10">
+      <c r="F60" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G60" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2186,58 +2192,58 @@
       <c r="D61" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F61" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G61" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10">
-      <c r="B62" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="22" t="s">
+      <c r="F61" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G61" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B62" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F62" s="24">
+      <c r="F62" s="26">
         <v>33333</v>
       </c>
-      <c r="G62" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="26"/>
-    </row>
-    <row r="67" spans="2:10">
-      <c r="B67" s="32" t="s">
+      <c r="G62" s="26">
+        <v>1000000</v>
+      </c>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="28"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="32"/>
+      <c r="C67" s="34"/>
       <c r="H67" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="2:10">
-      <c r="B68" s="32" t="s">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="32"/>
+      <c r="C68" s="34"/>
       <c r="H68" s="1" t="s">
         <v>69</v>
       </c>
